--- a/AAII_Financials/Quarterly/EMPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EMPM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>EMPM</t>
   </si>
@@ -1202,8 +1202,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1278,8 +1278,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
